--- a/Ketqua_nhandangBai3.xlsx
+++ b/Ketqua_nhandangBai3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hoc\ky5\Xu li tin hieu so\Bai tap\BT_Nhom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ki5\xulytinhieuso\BTNhom\BT_Nhom_xlths3\BT_Nhom_xlths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09F6C44-2D36-4CF1-96E7-F21CFFBBECCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1713BC34-9B4B-4435-9A92-B2CB796304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{676EDAF2-FF2F-415D-85D3-7B66997EA6EE}"/>
+    <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{676EDAF2-FF2F-415D-85D3-7B66997EA6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -161,7 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -477,16 +477,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -526,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -546,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -566,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -586,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -606,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -626,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -646,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -666,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -686,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -706,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -726,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -746,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -766,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -786,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -806,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -826,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -846,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -866,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -886,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -906,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -926,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -945,7 +946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -957,7 +958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ketqua_nhandangBai3.xlsx
+++ b/Ketqua_nhandangBai3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ki5\xulytinhieuso\BTNhom\BT_Nhom_xlths3\BT_Nhom_xlths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1713BC34-9B4B-4435-9A92-B2CB796304A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6CA8FE-BEF4-4152-9024-78806D453097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1440" windowWidth="14400" windowHeight="7360" xr2:uid="{676EDAF2-FF2F-415D-85D3-7B66997EA6EE}"/>
   </bookViews>
